--- a/L16 - ניתוח הבדיקות וטבלת דרישות (פרוייקט קבוצה 2).xlsx
+++ b/L16 - ניתוח הבדיקות וטבלת דרישות (פרוייקט קבוצה 2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\לימודים QA\פרוייקט\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\לימודים QA\פרוייקט\מוכן להגשה\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="190">
   <si>
     <t>דרישת אב</t>
   </si>
@@ -117,24 +117,6 @@
   </si>
   <si>
     <t>כיסוי  (דרישה)</t>
-  </si>
-  <si>
-    <t>מטרת התסריט היא לוודא כי המערכת מאפשרת הוספת לקוח חדש ללקוח שלא קיים</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">נתון / מצב / פעולה - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>בחר לקוח שאינו קיים במערכת</t>
-    </r>
   </si>
   <si>
     <t>המערכת מוצגת</t>
@@ -446,39 +428,6 @@
     <t>לאחר הרשמה לאתר כמשתמש חדש ולודדא שקיבלתי מייל עם אישור הרשמה</t>
   </si>
   <si>
-    <t>מטרת התסריט היא לוודא כי כאשר ישנו מוצר במלאי אני יוכל לקנות את המוצר בלחיצה על כפתור-proceed to chekout</t>
-  </si>
-  <si>
-    <t>המשך לקניה</t>
-  </si>
-  <si>
-    <t>אם קיבלתי בקשה להמשך קניה וכל המוצרים שבסל נמצאים במלאי אז יופעל אירוע רכישה</t>
-  </si>
-  <si>
-    <t>מאפשר ללקוח להמשיך לקניית המוצרים המופיעים בסל הקניות</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מטרת התסריט היא לוודא כאשר יש את המוצר במלאי אז שיהיה מעודכן המחיר </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> עדכון מחיר עלפי כמות</t>
-  </si>
-  <si>
-    <t>אם קיבלתי בקשת עדכון עבור כל מוצר שהכמות שלה אינה -0 עדכן את הרשומה כולל המחיר,עדכן גם את המחיר הכולל ורענן את העמוד</t>
-  </si>
-  <si>
-    <t>מטרת התסריט היא לוודא כי כאשר הכמות במלאי היא -0 אז היא לא תהיה במלאי</t>
-  </si>
-  <si>
-    <t>עדכון כמות</t>
-  </si>
-  <si>
-    <t>אם קיבלתי בקשת עדכון עבור כל מוצר שהכמות שלה הוא -0 אז הפעל הסרת מוצר</t>
-  </si>
-  <si>
-    <t>מאפשר לעדכן את כמות המוצר,לעדכן את המחיר הכולל של המוצר ושל סל הקניות</t>
-  </si>
-  <si>
     <t>סל קניות</t>
   </si>
   <si>
@@ -488,21 +437,6 @@
     <t>יוסי</t>
   </si>
   <si>
-    <t>וודא כי הכמות רציונלית כאשר אני מקליד מספר גבוה מאוד מעל כמות המלאי בפועל</t>
-  </si>
-  <si>
-    <t>עדכון כמות למספר גדול מאוד (מעל המלאי)</t>
-  </si>
-  <si>
-    <t>וודא כי הכמות מתעדכנת למספר שהוא מעל -0</t>
-  </si>
-  <si>
-    <t>עדכון כמות למספר שאינו -0</t>
-  </si>
-  <si>
-    <t>לסל התווסף מוצר</t>
-  </si>
-  <si>
     <t>הוספת מוצר לסל</t>
   </si>
   <si>
@@ -510,9 +444,6 @@
   </si>
   <si>
     <t>בחירת מוצר כלשהו</t>
-  </si>
-  <si>
-    <t>כניסה לקטגוריה כלשהי</t>
   </si>
   <si>
     <t>15.10.2022</t>
@@ -757,12 +688,154 @@
   <si>
     <t>אין אפשרות לשנות שם משתמש</t>
   </si>
+  <si>
+    <t>מוצר יתווסף לסל בנוסף</t>
+  </si>
+  <si>
+    <t>לחץ על כפתור הוספעה לסל פעם נוספת</t>
+  </si>
+  <si>
+    <t>מוצר יתווסף לסל</t>
+  </si>
+  <si>
+    <t>לחץ על כפתור הוספה לסל</t>
+  </si>
+  <si>
+    <t>היכנס אל מסך סל הקניות</t>
+  </si>
+  <si>
+    <t>נכנסים כמשתמש רשום ואז כלא רשום והולכים למסך מוצר או מסך קטגוריה</t>
+  </si>
+  <si>
+    <t>לוודא כי המוצר התווסף לסל פעמיים</t>
+  </si>
+  <si>
+    <t>הוספה לסל</t>
+  </si>
+  <si>
+    <t>לסל נוסף מוצר</t>
+  </si>
+  <si>
+    <t>נכנסים כמשתמש רשום ואז כלא רשום והולכים למסך מוצר או מסך תת קטגוריה</t>
+  </si>
+  <si>
+    <t>לוודא כי המוצר נוסף לסל</t>
+  </si>
+  <si>
+    <t>משתמש רשום</t>
+  </si>
+  <si>
+    <t>המשתמש אמור להגיע למסך ביצוע הזמנה</t>
+  </si>
+  <si>
+    <t>המשך לסל קניות</t>
+  </si>
+  <si>
+    <t>מגיע למסך ביצוע הזמנה</t>
+  </si>
+  <si>
+    <t>לוחץ על הכפתור כניסה כמשתמש לא רשום</t>
+  </si>
+  <si>
+    <t>מופיע מסך רישום לאתר</t>
+  </si>
+  <si>
+    <t>נכנס כמשתמש לא רשום לאתר</t>
+  </si>
+  <si>
+    <t>משתמש לא רשום</t>
+  </si>
+  <si>
+    <t>המשתמש אמור להגיע למסך רישום משתמש</t>
+  </si>
+  <si>
+    <t>כפתור המשך לסל הקניות</t>
+  </si>
+  <si>
+    <t>בעת לחיצה על הכפתור על המשתמש לעבור למסך ביצוע הזמנה</t>
+  </si>
+  <si>
+    <t>נכנסים כמשתמש לא רשום</t>
+  </si>
+  <si>
+    <t>לוחצים על הכפתור</t>
+  </si>
+  <si>
+    <t>המשתמש אמור להגיע למסך רישום משתמש קיים</t>
+  </si>
+  <si>
+    <t>נכנסים כמשתמש רשום</t>
+  </si>
+  <si>
+    <t>כפתור הוספה לסל</t>
+  </si>
+  <si>
+    <t>כפתור המאפשר להוסיף מוצרים לסל</t>
+  </si>
+  <si>
+    <t>לוחצים על הכפתור פעם אחת</t>
+  </si>
+  <si>
+    <t>לוחצים על הכפתור פעם נוספת</t>
+  </si>
+  <si>
+    <t>שיחזור סיסמה</t>
+  </si>
+  <si>
+    <t>מטרת התסריט היא לוודא שניתן לשחזר סיסמה במקרה של אובדן</t>
+  </si>
+  <si>
+    <t>נתון / מצב / פעולה - משתמש קיים במערכת ללא סיסמה</t>
+  </si>
+  <si>
+    <t>היכנס אל אתר חנות חיות בתור אורח לדף sign in ללא סיסמה</t>
+  </si>
+  <si>
+    <t>לחץ על כפתור שיחזור סיסמההיכנס אל מסך שיחזור סיסמה</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">נכשל - אין כפתור שיחזור סיסמה </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(הערה: למרות שזה לא באג ואין דרישת איפיון רצוי מאוד לטפל בנושא הנ"ל)</t>
+    </r>
+  </si>
+  <si>
+    <t>דף שיחזור סיסמה מוצג בהצלחה</t>
+  </si>
+  <si>
+    <t>פונקציה זו מאפשרת לבדוק האםניתן לשחזר סיסמה בהצלחה במקרה של אובדן</t>
+  </si>
+  <si>
+    <t>במקרה ושכחתי את הסיסמה אוכל לשחזר אותה ע"י לחיצת כפתור שיחזור ולעבור למסך שיחזור סיסמה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מטרת התסריט היא לוודא שבמקרה שמשתמש קיים שכח סיסמה המשתמש יוכל לשחזר אותה בהצלחה </t>
+  </si>
+  <si>
+    <t>להכנס לדף הרשמה לאתר וללחוץ על כפתור שיחזור סיסמה - שכחת סיסמה? לחץ כאן!</t>
+  </si>
+  <si>
+    <t>מבצע</t>
+  </si>
+  <si>
+    <t>ערגה</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -794,13 +867,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="0"/>
@@ -822,7 +888,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -873,18 +939,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1201,11 +1261,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1303,94 +1374,106 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1833,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C12"/>
+    <sheetView rightToLeft="1" topLeftCell="A16" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,582 +1977,620 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="51">
+      <c r="A4" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="58">
         <v>1</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>40</v>
+      <c r="C4" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>38</v>
       </c>
       <c r="E4" s="23">
         <v>1.1000000000000001</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" s="23">
         <v>1</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="23">
         <v>1.2</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" s="23">
         <v>2</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="23">
         <v>1.3</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="23">
         <v>3</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
       <c r="C7" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="23">
         <v>1.4</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="23">
         <v>4</v>
       </c>
       <c r="H7" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>52</v>
-      </c>
       <c r="J7" s="31" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="52">
+      <c r="A8" s="60"/>
+      <c r="B8" s="59">
         <v>2</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>53</v>
+      <c r="C8" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>51</v>
       </c>
       <c r="E8" s="24">
         <v>2.1</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="24">
         <v>5</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="31" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="54">
+      <c r="A10" s="60"/>
+      <c r="B10" s="57">
         <v>3</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>59</v>
+      <c r="C10" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>57</v>
       </c>
       <c r="E10" s="25">
         <v>3.1</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>60</v>
+      <c r="F10" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="G10" s="25">
         <v>6</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="25">
         <v>3.2</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>61</v>
+      <c r="F11" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="G11" s="25">
         <v>7</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="25">
         <v>3.3</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>68</v>
+      <c r="F12" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="G12" s="25">
         <v>8</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="53">
+      <c r="A13" s="60"/>
+      <c r="B13" s="64">
         <v>3</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>59</v>
+      <c r="C13" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>57</v>
       </c>
       <c r="E13" s="25">
         <v>3.4</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="36">
+      <c r="F13" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="35">
         <v>9</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="25">
         <v>3.5</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="36">
+      <c r="F14" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="35">
         <v>10</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="25">
         <v>3.6</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="36">
+      <c r="F15" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="35">
         <v>11</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="37">
+      <c r="A16" s="60"/>
+      <c r="B16" s="36">
         <v>3</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>59</v>
+      <c r="C16" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="28">
         <v>3.7</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="36">
+      <c r="F16" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="35">
         <v>12</v>
       </c>
       <c r="H16" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="62">
+        <v>4</v>
+      </c>
+      <c r="C17" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="46">
-        <v>6</v>
-      </c>
-      <c r="C17" s="47" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F17" s="39" t="s">
         <v>78</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="35">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>80</v>
       </c>
       <c r="G17" s="27">
         <v>13</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="39" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="34">
+        <v>4.2</v>
+      </c>
+      <c r="F18" s="39" t="s">
         <v>79</v>
-      </c>
-      <c r="E18" s="35">
-        <v>4.2</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>81</v>
       </c>
       <c r="G18" s="27">
         <v>14</v>
       </c>
       <c r="H18" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="51" customFormat="1" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="49">
+        <v>5</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="34">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="48">
+        <v>15</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="48">
-        <v>1</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="33">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="33">
-        <v>1</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="33">
-        <v>1.2</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="33">
-        <v>2</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>88</v>
+      <c r="B20" s="54">
+        <v>6</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="42">
+        <v>6.1</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="42">
+        <v>15</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>171</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="33">
-        <v>1.3</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33">
-        <v>3</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="42">
+        <v>6.2</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="42">
+        <v>16</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>159</v>
+      </c>
       <c r="J21" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="55">
-        <v>2</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="55">
-        <v>2.1</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="55">
-        <v>4</v>
-      </c>
-      <c r="H22" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="55" t="s">
-        <v>84</v>
-      </c>
+      <c r="A22" s="60"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="4" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
+      <c r="B23" s="52">
+        <v>7</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="52">
+        <v>7.1</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="52">
+        <v>17</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>157</v>
+      </c>
       <c r="J23" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="42">
+        <v>7.2</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="42">
+        <v>18</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="61"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="61"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
@@ -2528,36 +2649,59 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
+  <mergeCells count="39">
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2567,10 +2711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I83"/>
+  <dimension ref="A2:I155"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B61" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B70" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,15 +2734,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="22"/>
@@ -2615,14 +2759,14 @@
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>109</v>
+      <c r="A5" s="65" t="s">
+        <v>90</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>15</v>
@@ -2633,11 +2777,11 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="65"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
@@ -2648,36 +2792,36 @@
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="65"/>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>111</v>
+      <c r="C9" s="43" t="s">
+        <v>92</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="65"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -2711,7 +2855,7 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="65" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -2729,106 +2873,106 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="65"/>
       <c r="C15" s="19">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="65"/>
       <c r="C16" s="19">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="65"/>
       <c r="C17" s="19">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="65"/>
       <c r="C18" s="19">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="65"/>
       <c r="C19" s="19">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="G19" s="11"/>
-      <c r="I19" s="60" t="s">
-        <v>153</v>
+      <c r="I19" s="44" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="76.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="65"/>
       <c r="C20" s="19">
         <v>6</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>50</v>
+      <c r="D20" s="40" t="s">
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
+      <c r="A21" s="65"/>
       <c r="C21" s="20">
         <v>7</v>
       </c>
@@ -2857,14 +3001,14 @@
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
-        <v>122</v>
+      <c r="A26" s="65" t="s">
+        <v>103</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>15</v>
@@ -2875,11 +3019,11 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="65"/>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="10" t="s">
         <v>9</v>
       </c>
@@ -2890,36 +3034,36 @@
         <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="65"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="59" t="s">
-        <v>111</v>
+      <c r="C30" s="43" t="s">
+        <v>92</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="65"/>
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="10" t="s">
         <v>11</v>
       </c>
@@ -2951,7 +3095,7 @@
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="65" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -2969,66 +3113,66 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+      <c r="A36" s="65"/>
       <c r="C36" s="19">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+      <c r="A37" s="65"/>
       <c r="C37" s="19">
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="A38" s="65"/>
       <c r="C38" s="19">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
+      <c r="A39" s="65"/>
       <c r="C39" s="19">
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -3042,13 +3186,13 @@
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
     </row>
     <row r="43" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3061,69 +3205,69 @@
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="65" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="43" t="s">
-        <v>140</v>
+      <c r="C45" s="41" t="s">
+        <v>121</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F45" s="41">
         <v>3</v>
       </c>
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
+      <c r="A46" s="65"/>
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="41">
         <v>2</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="43" t="s">
-        <v>139</v>
+      <c r="F47" s="41" t="s">
+        <v>120</v>
       </c>
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
+      <c r="A48" s="65"/>
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="59" t="s">
-        <v>111</v>
+      <c r="C49" s="43" t="s">
+        <v>92</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="43" t="s">
-        <v>137</v>
+      <c r="F49" s="41" t="s">
+        <v>118</v>
       </c>
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
+      <c r="A50" s="65"/>
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="10" t="s">
         <v>11</v>
       </c>
@@ -3133,7 +3277,7 @@
       <c r="E51" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="43">
+      <c r="F51" s="41">
         <v>2</v>
       </c>
       <c r="G51" s="11"/>
@@ -3157,7 +3301,7 @@
       <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="57" t="s">
+      <c r="A54" s="65" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="32" t="s">
@@ -3175,366 +3319,1087 @@
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="C55" s="43">
+      <c r="A55" s="65"/>
+      <c r="C55" s="41">
         <v>1</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="D55" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="65"/>
+      <c r="C56" s="41">
+        <v>2</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="65"/>
+      <c r="C57" s="41">
+        <v>3</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="E55" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="C56" s="43">
-        <v>2</v>
-      </c>
-      <c r="D56" s="43" t="s">
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="65"/>
+      <c r="C58" s="41">
+        <v>4</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="65"/>
+      <c r="C59" s="41">
+        <v>5</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="C57" s="43">
-        <v>3</v>
-      </c>
-      <c r="D57" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="E57" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="C58" s="43">
-        <v>4</v>
-      </c>
-      <c r="D58" s="43" t="s">
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="65"/>
+      <c r="C60" s="41">
+        <v>6</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="41" t="s">
         <v>143</v>
-      </c>
-      <c r="E58" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="F58" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="C59" s="43">
-        <v>5</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="C60" s="43">
-        <v>6</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" s="43" t="s">
-        <v>162</v>
       </c>
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="43">
+      <c r="C61" s="41">
         <v>7</v>
       </c>
-      <c r="D61" s="43" t="s">
+      <c r="D61" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G61" s="46"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="47">
+        <v>4</v>
+      </c>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="65"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="65"/>
+      <c r="B67" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="47">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="65"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="65"/>
+      <c r="B69" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="65"/>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="65"/>
+      <c r="B71" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="12">
+        <v>44854</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="47"/>
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="15"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="65"/>
+      <c r="C75" s="19">
+        <v>1</v>
+      </c>
+      <c r="D75" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:7" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A76" s="65"/>
+      <c r="C76" s="19">
+        <v>2</v>
+      </c>
+      <c r="D76" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="15"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+    </row>
+    <row r="79" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="47">
+        <v>5</v>
+      </c>
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="65"/>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="65"/>
+      <c r="B83" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="47">
+        <v>1</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="65"/>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="65"/>
+      <c r="B85" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="65"/>
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="65"/>
+      <c r="B87" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="47">
+        <v>1</v>
+      </c>
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="15"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="65"/>
+      <c r="C91" s="19">
+        <v>1</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E91" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="E61" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="F61" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="G61" s="62"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="57" t="s">
+      <c r="F91" s="3"/>
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="65"/>
+      <c r="C92" s="19">
+        <v>2</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E92" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="65"/>
+      <c r="C93" s="19">
+        <v>3</v>
+      </c>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="65"/>
+      <c r="C94" s="19">
+        <v>4</v>
+      </c>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="11"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="65"/>
+      <c r="C95" s="19">
+        <v>5</v>
+      </c>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="11"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="65"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="11"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="65"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="11"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="15"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="7"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B102" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" s="10" t="s">
+      <c r="C102" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E102" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="30">
+      <c r="F102" s="47">
+        <v>6</v>
+      </c>
+      <c r="G102" s="11"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="65"/>
+      <c r="G103" s="11"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="65"/>
+      <c r="B104" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="47">
+        <v>2</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="65"/>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="65"/>
+      <c r="B106" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="65"/>
+      <c r="G107" s="11"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="65"/>
+      <c r="B108" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="47">
+        <v>2</v>
+      </c>
+      <c r="G108" s="11"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="15"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A111" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="11"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="65"/>
+      <c r="C112" s="19">
+        <v>1</v>
+      </c>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="11"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="65"/>
+      <c r="C113" s="19">
+        <v>2</v>
+      </c>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="11"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="65"/>
+      <c r="C114" s="19">
+        <v>3</v>
+      </c>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="11"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="65"/>
+      <c r="C115" s="19">
         <v>4</v>
       </c>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
-      <c r="B68" s="10" t="s">
+      <c r="D115" s="47"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="11"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="65"/>
+      <c r="C116" s="19">
+        <v>5</v>
+      </c>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="11"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="65"/>
+      <c r="C117" s="20">
+        <v>6</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="15"/>
+    </row>
+    <row r="120" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="7"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="9"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="47">
+        <v>7</v>
+      </c>
+      <c r="G122" s="11"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="65"/>
+      <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="65"/>
+      <c r="B124" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="30">
+      <c r="C124" s="47">
+        <v>3</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G124" s="11"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="65"/>
+      <c r="G125" s="11"/>
+    </row>
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="65"/>
+      <c r="B126" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="G126" s="11"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="65"/>
+      <c r="G127" s="11"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="65"/>
+      <c r="B128" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="47">
+        <v>3</v>
+      </c>
+      <c r="G128" s="11"/>
+    </row>
+    <row r="129" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="13"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="15"/>
+    </row>
+    <row r="130" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="7"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="G130" s="9"/>
+    </row>
+    <row r="131" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A131" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" s="11"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="65"/>
+      <c r="C132" s="19">
         <v>1</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="D132" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E132" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="G132" s="11"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="65"/>
+      <c r="C133" s="19">
+        <v>2</v>
+      </c>
+      <c r="D133" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E133" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="F133" s="3"/>
+      <c r="G133" s="11"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="65"/>
+      <c r="C134" s="19">
+        <v>3</v>
+      </c>
+      <c r="D134" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E134" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F134" s="3"/>
+      <c r="G134" s="11"/>
+    </row>
+    <row r="135" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="65"/>
+      <c r="C135" s="20">
+        <v>4</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F135" s="21"/>
+      <c r="G135" s="11"/>
+    </row>
+    <row r="136" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="13"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="15"/>
+    </row>
+    <row r="138" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="7"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="47">
+        <v>8</v>
+      </c>
+      <c r="G140" s="11"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="65"/>
+      <c r="G141" s="11"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="65"/>
+      <c r="B142" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="47">
+        <v>4</v>
+      </c>
+      <c r="E142" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F142" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="G142" s="11"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="65"/>
+      <c r="G143" s="11"/>
+    </row>
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="65"/>
+      <c r="B144" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="G144" s="11"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="65"/>
+      <c r="G145" s="11"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="65"/>
+      <c r="B146" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" s="47">
+        <v>4</v>
+      </c>
+      <c r="G146" s="11"/>
+    </row>
+    <row r="147" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="13"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="15"/>
+    </row>
+    <row r="148" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="G148" s="9"/>
+    </row>
+    <row r="149" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A149" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" s="11"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="65"/>
+      <c r="C150" s="19">
+        <v>1</v>
+      </c>
+      <c r="D150" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E150" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
-      <c r="G71" s="11"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
-      <c r="B72" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="30">
-        <v>1</v>
-      </c>
-      <c r="G72" s="11"/>
-    </row>
-    <row r="73" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="15"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" s="11"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
-      <c r="C76" s="19">
-        <v>1</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
-      <c r="C77" s="19">
+      <c r="F150" s="3"/>
+      <c r="G150" s="11"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="65"/>
+      <c r="C151" s="19">
         <v>2</v>
       </c>
-      <c r="D77" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
-      <c r="C78" s="19">
+      <c r="D151" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E151" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="F151" s="3"/>
+      <c r="G151" s="11"/>
+    </row>
+    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="65"/>
+      <c r="C152" s="19">
         <v>3</v>
       </c>
-      <c r="D78" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
-      <c r="C79" s="19">
-        <v>4</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
-      <c r="C80" s="19">
-        <v>5</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E80" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="11"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="11"/>
-    </row>
-    <row r="82" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="57"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="11"/>
-    </row>
-    <row r="83" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="15"/>
+      <c r="D152" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E152" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F152" s="3"/>
+      <c r="G152" s="11"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="65"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="11"/>
+    </row>
+    <row r="154" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="65"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="11"/>
+    </row>
+    <row r="155" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="13"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="17">
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="A149:A154"/>
     <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A75:A82"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A26:A32"/>
     <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A81:A87"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A102:A108"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="A122:A128"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3544,10 +4409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B57"/>
+  <dimension ref="A2:C57"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3557,99 +4422,129 @@
     <col min="3" max="16384" width="11.6328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="26">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="26">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="26">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
